--- a/datos_CUDA.xlsx
+++ b/datos_CUDA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Paralela\paralela-T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Paralela\paralela-T1\paralela-T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F133D1C1-8BD1-497E-A0A9-9DDBF1EB8EB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0157F3-E838-431F-B802-C747C710E73B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18948CA5-5403-42AA-A7EF-63599382BCE0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>28 blocks</t>
   </si>
@@ -3987,20 +3987,4085 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>SpeddUp Imagen 720p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kernel3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$K$18:$K$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$K$19:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0021058596204822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0027949433266266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0062154543355788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0059850644602077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>kernel5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$L$18:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$L$19:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4520423297625382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4565353222961011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4649931770194038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5120516272646216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kernel7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$M$18:$M$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99944307399720456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4681835298414616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5152116434918272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7082186550364109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>kernel9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$N$18:$N$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$N$19:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3111344631763311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3171574148390881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7658539452144331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5993043237111717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>kernel11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$O$18:$O$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$O$19:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0082901998701121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0168648737028101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8649269515062388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7444103215451698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>kernel13</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$P$18:$P$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$P$19:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0033180395159307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0153275243248496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0187292931185015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0177863770542723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>kernel15</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$Q$18:$Q$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$Q$19:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3274253313624296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.330600691940657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3301786324469722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3306086619685285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2BFC-4080-B881-0F646DA438DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1380027935"/>
+        <c:axId val="1284443471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>kernel3</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$B$18:$B$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$19:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47311514600908999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47279003872727271</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47118284463636362</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47129075454545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>kernel5</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$C$18:$C$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$C$19:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.3241793329090909</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32317933290909101</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.32131351954545456</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.311313519545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>kernel7</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$D$18:$D$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$D$19:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47330165709090916</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32219273236363644</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.31219273236363598</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17466760381818183</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>kernel9</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$E$18:$E$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$E$19:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47443176918181806</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47226234009090912</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.35226234009090901</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17282335336363636</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>kernel11</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$F$18:$F$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$F$19:$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47435734281818187</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47035734281818198</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.25646573428181801</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17427782436363637</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>kernel13</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$G$18:$G$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$G$19:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.48032306798909002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.4746417164545455</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47305677981818178</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47349503763636364</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>kernel15</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$J$18:$J$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$J$19:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$H$18:$H$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$H$19:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.4753679452727273</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47423352181818185</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47438399390909092</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47423068127272733</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-2BFC-4080-B881-0F646DA438DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1380027935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>bloques (*1024 hilos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284443471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284443471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Ganancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380027935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>SpeddUp Imagen 1080p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kernel3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AY$18:$AY$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AY$19:$AY$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1690209072111573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2231489402379905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2001597650076317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2024646563919625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>kernel5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AZ$18:$AZ$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AZ$19:$AZ$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0019581101629493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0012360638607798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0012632787135285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0039667780053525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kernel7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$BA$18:$BA$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$BA$19:$BA$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.005211960247159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0094387448402216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0109746447610386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0120691799158303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>kernel9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$BB$18:$BB$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$BB$19:$BB$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0094718783579786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0157666333865234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0194057057699291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0219601462489005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>kernel11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$BC$18:$BC$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$BC$19:$BC$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1982256084946803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2100317193914387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2219605362296164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2217199520661024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>kernel13</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$BD$18:$BD$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$BD$19:$BD$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1995638238080397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2214093995792026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2194525180078031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2375859834111198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>kernel15</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$AX$19:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$BE$18:$BE$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$BE$19:$BE$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0105786099210938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0341877979276854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04118123562953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.186131175313405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1380027935"/>
+        <c:axId val="1284443471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>kernel3</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$B$18:$B$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$19:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47311514600908999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47279003872727271</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47118284463636362</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47129075454545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>kernel5</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$C$18:$C$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$C$19:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.3241793329090909</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32317933290909101</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.32131351954545456</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.311313519545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>kernel7</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$D$18:$D$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$D$19:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47330165709090916</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32219273236363644</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.31219273236363598</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17466760381818183</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>kernel9</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$E$18:$E$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$E$19:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47443176918181806</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47226234009090912</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.35226234009090901</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17282335336363636</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>kernel11</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$F$18:$F$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$F$19:$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47435734281818187</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47035734281818198</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.25646573428181801</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17427782436363637</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>kernel13</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$G$18:$G$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$G$19:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.48032306798909002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.4746417164545455</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47305677981818178</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47349503763636364</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>kernel15</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$AX$18:$AX$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$AX$19:$AX$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$H$18:$H$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$H$19:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.4753679452727273</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47423352181818185</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47438399390909092</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47423068127272733</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-0607-4E94-9EEF-DDAF5E92FFCD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1380027935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>bloques (*1024 hilos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284443471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284443471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Ganancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380027935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>SpeddUp Imagen 4k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kernel3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CM$18:$CM$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CM$19:$CM$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0027011488917252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.006503122251365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0063744582954544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0857479099440723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>kernel5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CN$18:$CN$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CN$19:$CN$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0065518301271783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0038114198622061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99854745778119214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99444503877304213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kernel7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CO$18:$CO$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CO$19:$CO$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.031399484518047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0942351663120677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0903729410480971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0982733242405593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>kernel9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CP$18:$CP$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CP$19:$CP$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1190031575480257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0961065934367011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1536505597104996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2240189163487019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>kernel11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CQ$18:$CQ$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CQ$19:$CQ$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0295713546156613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0351150140961687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0796854792958517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1298610216838672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>kernel13</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CR$18:$CR$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CR$19:$CR$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.297518820324679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2563117847934526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.236208904900524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2331354218999604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>kernel15</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CL$19:$CL$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$CS$18:$CS$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$CS$19:$CS$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4093025654311686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.419298386245176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3759171990160861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6060691431505054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-02AA-455A-A5BC-B3311100F365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1380027935"/>
+        <c:axId val="1284443471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>kernel3</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$B$18:$B$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$19:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47311514600908999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47279003872727271</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47118284463636362</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47129075454545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>kernel5</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$C$18:$C$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$C$19:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.3241793329090909</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32317933290909101</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.32131351954545456</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.311313519545455</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>kernel7</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$D$18:$D$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$D$19:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47330165709090916</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32219273236363644</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.31219273236363598</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17466760381818183</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>kernel9</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$E$18:$E$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$E$19:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47443176918181806</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47226234009090912</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.35226234009090901</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17282335336363636</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>kernel11</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$F$18:$F$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$F$19:$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.47435734281818187</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47035734281818198</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.25646573428181801</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17427782436363637</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>kernel13</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$G$18:$G$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$G$19:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.48032306798909002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.4746417164545455</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47305677981818178</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47349503763636364</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>kernel15</c:v>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$CL$18:$CL$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$CL$19:$CL$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Hoja1!$H$18:$H$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$H$19:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.4753679452727273</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47423352181818185</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47438399390909092</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.47423068127272733</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-02AA-455A-A5BC-B3311100F365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1380027935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>bloques (*1024 hilos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284443471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284443471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6400000000000001"/>
+          <c:min val="0.99"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Ganancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380027935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>322488</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:colOff>351063</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>118382</xdr:rowOff>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,6 +8161,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>763361</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF0062E-8549-4398-BB6F-E8BA642A34E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>96611</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0518320A-432E-44FE-BDF8-DD42DA429A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>96611</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7754C9-62CF-49DD-A7CB-47FDB63FC18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4553,8 +8732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0B1BF5-FE3D-4618-8CF0-404C579ED596}">
   <dimension ref="A1:DO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV27" sqref="AV27"/>
+    <sheetView tabSelected="1" topLeftCell="CC7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CU26" sqref="CU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4565,7 +8744,7 @@
     <col min="4" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.85546875" customWidth="1"/>
     <col min="25" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -8674,8 +12853,38 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="AX16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="CL16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -8700,6 +12909,30 @@
       <c r="H17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="AO17" s="3" t="s">
         <v>9</v>
       </c>
@@ -8724,6 +12957,30 @@
       <c r="AV17" s="7">
         <v>15</v>
       </c>
+      <c r="AX17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="CD17">
         <v>3</v>
       </c>
@@ -8745,8 +13002,32 @@
       <c r="CJ17">
         <v>15</v>
       </c>
+      <c r="CL17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CS17" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>28</v>
       </c>
@@ -8778,6 +13059,37 @@
         <f t="shared" si="3"/>
         <v>0.63101545227272737</v>
       </c>
+      <c r="J18" s="3">
+        <v>28</v>
+      </c>
+      <c r="K18" s="5">
+        <f>$B$18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f>$C$18/C18</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <f>$D$18/D18</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <f>$E$18/E18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <f>$F$18/F18</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <f>$G$18/G18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>$H$18/H18</f>
+        <v>1</v>
+      </c>
       <c r="AO18" s="3">
         <v>28</v>
       </c>
@@ -8809,6 +13121,37 @@
         <f t="shared" si="4"/>
         <v>0.69295443845454552</v>
       </c>
+      <c r="AX18" s="3">
+        <v>28</v>
+      </c>
+      <c r="AY18" s="5">
+        <f>$AP$18/AP18</f>
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="5">
+        <f>$AQ$18/AQ18</f>
+        <v>1</v>
+      </c>
+      <c r="BA18" s="5">
+        <f>$AR$18/AR18</f>
+        <v>1</v>
+      </c>
+      <c r="BB18" s="5">
+        <f>$AS$18/AS18</f>
+        <v>1</v>
+      </c>
+      <c r="BC18" s="5">
+        <f>$AT$18/AT18</f>
+        <v>1</v>
+      </c>
+      <c r="BD18" s="5">
+        <f>$AU$18/AU18</f>
+        <v>1</v>
+      </c>
+      <c r="BE18" s="5">
+        <f>$AV$18/AV18</f>
+        <v>1</v>
+      </c>
       <c r="CC18">
         <v>28</v>
       </c>
@@ -8819,7 +13162,7 @@
         <v>1.1124963999999999</v>
       </c>
       <c r="CF18" s="2">
-        <f t="shared" ref="CE18:CJ18" si="5">CE15</f>
+        <f t="shared" ref="CF18:CJ18" si="5">CE15</f>
         <v>1.1319311986363636</v>
       </c>
       <c r="CG18" s="2">
@@ -8836,8 +13179,39 @@
         <f t="shared" si="5"/>
         <v>1.5532783248181821</v>
       </c>
+      <c r="CL18" s="3">
+        <v>28</v>
+      </c>
+      <c r="CM18" s="5">
+        <f>$CD$18/CD18</f>
+        <v>1</v>
+      </c>
+      <c r="CN18" s="5">
+        <f>$CE$18/CE18</f>
+        <v>1</v>
+      </c>
+      <c r="CO18" s="5">
+        <f>$CF$18/CF18</f>
+        <v>1</v>
+      </c>
+      <c r="CP18" s="5">
+        <f>$CG$18/CG18</f>
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="5">
+        <f>$CH$18/CH18</f>
+        <v>1</v>
+      </c>
+      <c r="CR18" s="5">
+        <f>$CI$18/CI18</f>
+        <v>1</v>
+      </c>
+      <c r="CS18" s="5">
+        <f>$CJ$18/CJ18</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>56</v>
       </c>
@@ -8867,6 +13241,37 @@
         <f t="shared" si="6"/>
         <v>0.4753679452727273</v>
       </c>
+      <c r="J19" s="3">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" ref="K19:K22" si="7">$B$18/B19</f>
+        <v>1.0021058596204822</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" ref="L19:L22" si="8">$C$18/C19</f>
+        <v>1.4520423297625382</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" ref="M19:M22" si="9">$D$18/D19</f>
+        <v>0.99944307399720456</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" ref="N19:N22" si="10">$E$18/E19</f>
+        <v>1.3111344631763311</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19:O22" si="11">$F$18/F19</f>
+        <v>1.0082901998701121</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:P22" si="12">$G$18/G19</f>
+        <v>1.0033180395159307</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" ref="Q19:Q22" si="13">$H$18/H19</f>
+        <v>1.3274253313624296</v>
+      </c>
       <c r="AO19" s="3">
         <v>56</v>
       </c>
@@ -8874,28 +13279,59 @@
         <v>0.68032130983481798</v>
       </c>
       <c r="AQ19" s="6">
-        <f t="shared" ref="AQ19" si="7">AX15</f>
+        <f t="shared" ref="AQ19" si="14">AX15</f>
         <v>0.66193229990909086</v>
       </c>
       <c r="AR19" s="6">
-        <f t="shared" ref="AR19" si="8">AY15</f>
+        <f t="shared" ref="AR19" si="15">AY15</f>
         <v>0.66399988409090915</v>
       </c>
       <c r="AS19" s="6">
-        <f t="shared" ref="AS19" si="9">AZ15</f>
+        <f t="shared" ref="AS19" si="16">AZ15</f>
         <v>0.66671257009090912</v>
       </c>
       <c r="AT19" s="6">
-        <f t="shared" ref="AT19" si="10">BA15</f>
+        <f t="shared" ref="AT19" si="17">BA15</f>
         <v>0.67257334854545459</v>
       </c>
       <c r="AU19" s="6">
-        <f t="shared" ref="AU19" si="11">BB15</f>
+        <f t="shared" ref="AU19" si="18">BB15</f>
         <v>0.67688684690909096</v>
       </c>
       <c r="AV19" s="6">
-        <f t="shared" ref="AV19" si="12">BC15</f>
+        <f t="shared" ref="AV19" si="19">BC15</f>
         <v>0.68570067845454552</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>56</v>
+      </c>
+      <c r="AY19" s="5">
+        <f t="shared" ref="AY19:AY22" si="20">$AP$18/AP19</f>
+        <v>1.1690209072111573</v>
+      </c>
+      <c r="AZ19" s="5">
+        <f t="shared" ref="AZ19:AZ22" si="21">$AQ$18/AQ19</f>
+        <v>1.0019581101629493</v>
+      </c>
+      <c r="BA19" s="5">
+        <f t="shared" ref="BA19:BA22" si="22">$AR$18/AR19</f>
+        <v>1.005211960247159</v>
+      </c>
+      <c r="BB19" s="5">
+        <f t="shared" ref="BB19:BB22" si="23">$AS$18/AS19</f>
+        <v>1.0094718783579786</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" ref="BC19:BC22" si="24">$AT$18/AT19</f>
+        <v>1.1982256084946803</v>
+      </c>
+      <c r="BD19" s="5">
+        <f t="shared" ref="BD19:BD22" si="25">$AU$18/AU19</f>
+        <v>1.1995638238080397</v>
+      </c>
+      <c r="BE19" s="5">
+        <f t="shared" ref="BE19:BE22" si="26">$AV$18/AV19</f>
+        <v>1.0105786099210938</v>
       </c>
       <c r="CC19">
         <v>56</v>
@@ -8905,30 +13341,61 @@
         <v>1.1191415320909091</v>
       </c>
       <c r="CE19" s="2">
-        <f t="shared" ref="CE19" si="13">CL15</f>
+        <f t="shared" ref="CE19" si="27">CL15</f>
         <v>1.1052549572727273</v>
       </c>
       <c r="CF19" s="2">
-        <f t="shared" ref="CF19" si="14">CM15</f>
+        <f t="shared" ref="CF19" si="28">CM15</f>
         <v>1.0974711696363637</v>
       </c>
       <c r="CG19" s="2">
-        <f t="shared" ref="CG19" si="15">CN15</f>
+        <f t="shared" ref="CG19" si="29">CN15</f>
         <v>1.1300740229999999</v>
       </c>
       <c r="CH19" s="2">
-        <f t="shared" ref="CH19" si="16">CO15</f>
+        <f t="shared" ref="CH19" si="30">CO15</f>
         <v>1.1358672662727274</v>
       </c>
       <c r="CI19" s="2">
-        <f t="shared" ref="CI19" si="17">CP15</f>
+        <f t="shared" ref="CI19" si="31">CP15</f>
         <v>1.1055847089090909</v>
       </c>
       <c r="CJ19" s="2">
         <v>1.1021609999999999</v>
       </c>
+      <c r="CL19" s="3">
+        <v>56</v>
+      </c>
+      <c r="CM19" s="5">
+        <f t="shared" ref="CM19:CM22" si="32">$CD$18/CD19</f>
+        <v>1.0027011488917252</v>
+      </c>
+      <c r="CN19" s="5">
+        <f t="shared" ref="CN19:CN22" si="33">$CE$18/CE19</f>
+        <v>1.0065518301271783</v>
+      </c>
+      <c r="CO19" s="5">
+        <f t="shared" ref="CO19:CO22" si="34">$CF$18/CF19</f>
+        <v>1.031399484518047</v>
+      </c>
+      <c r="CP19" s="5">
+        <f t="shared" ref="CP19:CP22" si="35">$CG$18/CG19</f>
+        <v>1.1190031575480257</v>
+      </c>
+      <c r="CQ19" s="5">
+        <f t="shared" ref="CQ19:CQ22" si="36">$CH$18/CH19</f>
+        <v>1.0295713546156613</v>
+      </c>
+      <c r="CR19" s="5">
+        <f t="shared" ref="CR19:CR22" si="37">$CI$18/CI19</f>
+        <v>1.297518820324679</v>
+      </c>
+      <c r="CS19" s="5">
+        <f t="shared" ref="CS19:CS22" si="38">$CJ$18/CJ19</f>
+        <v>1.4093025654311686</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>112</v>
       </c>
@@ -8940,23 +13407,54 @@
         <v>0.32317933290909101</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ref="C20:H20" si="18">S15</f>
+        <f t="shared" ref="D20:H20" si="39">S15</f>
         <v>0.32219273236363644</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>0.47226234009090912</v>
       </c>
       <c r="F20" s="5">
         <v>0.47035734281818198</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>0.4746417164545455</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>0.47423352181818185</v>
+      </c>
+      <c r="J20" s="3">
+        <v>112</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0027949433266266</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4565353222961011</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4681835298414616</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3171574148390881</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0168648737028101</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0153275243248496</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="13"/>
+        <v>1.330600691940657</v>
       </c>
       <c r="AO20" s="3">
         <v>112</v>
@@ -8965,27 +13463,58 @@
         <v>0.65021503813218096</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" ref="AQ20" si="19">BF15</f>
+        <f t="shared" ref="AQ20" si="40">BF15</f>
         <v>0.66240965563636367</v>
       </c>
       <c r="AR20" s="6">
-        <f t="shared" ref="AR20" si="20">BG15</f>
+        <f t="shared" ref="AR20" si="41">BG15</f>
         <v>0.66121954254545456</v>
       </c>
       <c r="AS20" s="6">
-        <f t="shared" ref="AS20" si="21">BH15</f>
+        <f t="shared" ref="AS20" si="42">BH15</f>
         <v>0.66258092000000002</v>
       </c>
       <c r="AT20" s="6">
-        <f t="shared" ref="AT20" si="22">BI15</f>
+        <f t="shared" ref="AT20" si="43">BI15</f>
         <v>0.66601114409090911</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" ref="AU20" si="23">BJ15</f>
+        <f t="shared" ref="AU20" si="44">BJ15</f>
         <v>0.66478035509090905</v>
       </c>
       <c r="AV20" s="6">
         <v>0.67004700678454499</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>112</v>
+      </c>
+      <c r="AY20" s="5">
+        <f t="shared" si="20"/>
+        <v>1.2231489402379905</v>
+      </c>
+      <c r="AZ20" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0012360638607798</v>
+      </c>
+      <c r="BA20" s="5">
+        <f t="shared" si="22"/>
+        <v>1.0094387448402216</v>
+      </c>
+      <c r="BB20" s="5">
+        <f t="shared" si="23"/>
+        <v>1.0157666333865234</v>
+      </c>
+      <c r="BC20" s="5">
+        <f t="shared" si="24"/>
+        <v>1.2100317193914387</v>
+      </c>
+      <c r="BD20" s="5">
+        <f t="shared" si="25"/>
+        <v>1.2214093995792026</v>
+      </c>
+      <c r="BE20" s="5">
+        <f t="shared" si="26"/>
+        <v>1.0341877979276854</v>
       </c>
       <c r="CC20">
         <v>112</v>
@@ -8995,31 +13524,62 @@
         <v>1.1149140774545454</v>
       </c>
       <c r="CE20" s="2">
-        <f t="shared" ref="CE20" si="24">CT15</f>
+        <f t="shared" ref="CE20" si="45">CT15</f>
         <v>1.1082723089090909</v>
       </c>
       <c r="CF20" s="2">
-        <f t="shared" ref="CF20" si="25">CU15</f>
+        <f t="shared" ref="CF20" si="46">CU15</f>
         <v>1.0344496626363635</v>
       </c>
       <c r="CG20" s="2">
-        <f t="shared" ref="CG20" si="26">CV15</f>
+        <f t="shared" ref="CG20" si="47">CV15</f>
         <v>1.1536801325454547</v>
       </c>
       <c r="CH20" s="2">
-        <f t="shared" ref="CH20" si="27">CW15</f>
+        <f t="shared" ref="CH20" si="48">CW15</f>
         <v>1.1297840182727272</v>
       </c>
       <c r="CI20" s="2">
-        <f t="shared" ref="CI20" si="28">CX15</f>
+        <f t="shared" ref="CI20" si="49">CX15</f>
         <v>1.1418478952727271</v>
       </c>
       <c r="CJ20" s="2">
-        <f t="shared" ref="CJ20" si="29">CY15</f>
+        <f t="shared" ref="CJ20" si="50">CY15</f>
         <v>1.0943987112727271</v>
       </c>
+      <c r="CL20" s="3">
+        <v>112</v>
+      </c>
+      <c r="CM20" s="5">
+        <f t="shared" si="32"/>
+        <v>1.006503122251365</v>
+      </c>
+      <c r="CN20" s="5">
+        <f t="shared" si="33"/>
+        <v>1.0038114198622061</v>
+      </c>
+      <c r="CO20" s="5">
+        <f t="shared" si="34"/>
+        <v>1.0942351663120677</v>
+      </c>
+      <c r="CP20" s="5">
+        <f t="shared" si="35"/>
+        <v>1.0961065934367011</v>
+      </c>
+      <c r="CQ20" s="5">
+        <f t="shared" si="36"/>
+        <v>1.0351150140961687</v>
+      </c>
+      <c r="CR20" s="5">
+        <f t="shared" si="37"/>
+        <v>1.2563117847934526</v>
+      </c>
+      <c r="CS20" s="5">
+        <f t="shared" si="38"/>
+        <v>1.419298386245176</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>224</v>
       </c>
@@ -9028,7 +13588,7 @@
         <v>0.47118284463636362</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ref="C21:H21" si="30">Z15</f>
+        <f t="shared" ref="C21:H21" si="51">Z15</f>
         <v>0.32131351954545456</v>
       </c>
       <c r="D21" s="5">
@@ -9041,12 +13601,43 @@
         <v>0.25646573428181801</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>0.47305677981818178</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>0.47438399390909092</v>
+      </c>
+      <c r="J21" s="3">
+        <v>224</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0062154543355788</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4649931770194038</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5152116434918272</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7658539452144331</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="11"/>
+        <v>1.8649269515062388</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0187292931185015</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3301786324469722</v>
       </c>
       <c r="AO21" s="3">
         <v>224</v>
@@ -9065,16 +13656,47 @@
         <v>0.66021563999999999</v>
       </c>
       <c r="AT21" s="6">
-        <f t="shared" ref="AT21" si="31">BQ15</f>
+        <f t="shared" ref="AT21" si="52">BQ15</f>
         <v>0.65950952254545459</v>
       </c>
       <c r="AU21" s="6">
-        <f t="shared" ref="AU21" si="32">BR15</f>
+        <f t="shared" ref="AU21" si="53">BR15</f>
         <v>0.66584714236363629</v>
       </c>
       <c r="AV21" s="6">
-        <f t="shared" ref="AV21" si="33">BS15</f>
+        <f t="shared" ref="AV21" si="54">BS15</f>
         <v>0.66554641472727272</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>224</v>
+      </c>
+      <c r="AY21" s="5">
+        <f t="shared" si="20"/>
+        <v>1.2001597650076317</v>
+      </c>
+      <c r="AZ21" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0012632787135285</v>
+      </c>
+      <c r="BA21" s="5">
+        <f t="shared" si="22"/>
+        <v>1.0109746447610386</v>
+      </c>
+      <c r="BB21" s="5">
+        <f t="shared" si="23"/>
+        <v>1.0194057057699291</v>
+      </c>
+      <c r="BC21" s="5">
+        <f t="shared" si="24"/>
+        <v>1.2219605362296164</v>
+      </c>
+      <c r="BD21" s="5">
+        <f t="shared" si="25"/>
+        <v>1.2194525180078031</v>
+      </c>
+      <c r="BE21" s="5">
+        <f t="shared" si="26"/>
+        <v>1.04118123562953</v>
       </c>
       <c r="CC21">
         <v>224</v>
@@ -9084,31 +13706,62 @@
         <v>1.1150566180909092</v>
       </c>
       <c r="CE21" s="2">
-        <f t="shared" ref="CE21" si="34">DB15</f>
+        <f t="shared" ref="CE21" si="55">DB15</f>
         <v>1.1141146986363637</v>
       </c>
       <c r="CF21" s="2">
-        <f t="shared" ref="CF21" si="35">DC15</f>
+        <f t="shared" ref="CF21" si="56">DC15</f>
         <v>1.0381138012727273</v>
       </c>
       <c r="CG21" s="2">
-        <f t="shared" ref="CG21" si="36">DD15</f>
+        <f t="shared" ref="CG21" si="57">DD15</f>
         <v>1.0961346911818182</v>
       </c>
       <c r="CH21" s="2">
-        <f t="shared" ref="CH21" si="37">DE15</f>
+        <f t="shared" ref="CH21" si="58">DE15</f>
         <v>1.0831454367272728</v>
       </c>
       <c r="CI21" s="2">
-        <f t="shared" ref="CI21" si="38">DF15</f>
+        <f t="shared" ref="CI21" si="59">DF15</f>
         <v>1.1604163030909089</v>
       </c>
       <c r="CJ21" s="2">
-        <f t="shared" ref="CJ21" si="39">DG15</f>
+        <f t="shared" ref="CJ21" si="60">DG15</f>
         <v>1.1289039238181819</v>
       </c>
+      <c r="CL21" s="3">
+        <v>224</v>
+      </c>
+      <c r="CM21" s="5">
+        <f t="shared" si="32"/>
+        <v>1.0063744582954544</v>
+      </c>
+      <c r="CN21" s="5">
+        <f t="shared" si="33"/>
+        <v>0.99854745778119214</v>
+      </c>
+      <c r="CO21" s="5">
+        <f t="shared" si="34"/>
+        <v>1.0903729410480971</v>
+      </c>
+      <c r="CP21" s="5">
+        <f t="shared" si="35"/>
+        <v>1.1536505597104996</v>
+      </c>
+      <c r="CQ21" s="5">
+        <f t="shared" si="36"/>
+        <v>1.0796854792958517</v>
+      </c>
+      <c r="CR21" s="5">
+        <f t="shared" si="37"/>
+        <v>1.236208904900524</v>
+      </c>
+      <c r="CS21" s="5">
+        <f t="shared" si="38"/>
+        <v>1.3759171990160861</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>448</v>
       </c>
@@ -9120,24 +13773,55 @@
         <v>0.311313519545455</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ref="C22:H22" si="40">AI15</f>
+        <f t="shared" ref="D22:H22" si="61">AI15</f>
         <v>0.17466760381818183</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>0.17282335336363636</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>0.17427782436363637</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>0.47349503763636364</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>0.47423068127272733</v>
+      </c>
+      <c r="J22" s="3">
+        <v>448</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0059850644602077</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5120516272646216</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="9"/>
+        <v>2.7082186550364109</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="10"/>
+        <v>3.5993043237111717</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="11"/>
+        <v>2.7444103215451698</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0177863770542723</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3306086619685285</v>
       </c>
       <c r="AO22" s="3">
         <v>448</v>
@@ -9147,27 +13831,58 @@
         <v>0.66139975972727283</v>
       </c>
       <c r="AQ22" s="6">
-        <f t="shared" ref="AQ22" si="41">BV15</f>
+        <f t="shared" ref="AQ22" si="62">BV15</f>
         <v>0.66060795118181825</v>
       </c>
       <c r="AR22" s="6">
-        <f t="shared" ref="AR22" si="42">BW15</f>
+        <f t="shared" ref="AR22" si="63">BW15</f>
         <v>0.65950098899999998</v>
       </c>
       <c r="AS22" s="6">
-        <f t="shared" ref="AS22" si="43">BX15</f>
+        <f t="shared" ref="AS22" si="64">BX15</f>
         <v>0.65856539800000002</v>
       </c>
       <c r="AT22" s="6">
-        <f t="shared" ref="AT22" si="44">BY15</f>
+        <f t="shared" ref="AT22" si="65">BY15</f>
         <v>0.6596393948181819</v>
       </c>
       <c r="AU22" s="6">
-        <f t="shared" ref="AU22" si="45">BZ15</f>
+        <f t="shared" ref="AU22" si="66">BZ15</f>
         <v>0.65609095872727285</v>
       </c>
       <c r="AV22" s="6">
         <v>0.58421400000000001</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>448</v>
+      </c>
+      <c r="AY22" s="5">
+        <f t="shared" si="20"/>
+        <v>1.2024646563919625</v>
+      </c>
+      <c r="AZ22" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0039667780053525</v>
+      </c>
+      <c r="BA22" s="5">
+        <f t="shared" si="22"/>
+        <v>1.0120691799158303</v>
+      </c>
+      <c r="BB22" s="5">
+        <f t="shared" si="23"/>
+        <v>1.0219601462489005</v>
+      </c>
+      <c r="BC22" s="5">
+        <f t="shared" si="24"/>
+        <v>1.2217199520661024</v>
+      </c>
+      <c r="BD22" s="5">
+        <f t="shared" si="25"/>
+        <v>1.2375859834111198</v>
+      </c>
+      <c r="BE22" s="5">
+        <f t="shared" si="26"/>
+        <v>1.186131175313405</v>
       </c>
       <c r="CC22">
         <v>448</v>
@@ -9177,33 +13892,67 @@
         <v>1.0335405573636365</v>
       </c>
       <c r="CE22" s="2">
-        <f t="shared" ref="CE22" si="46">DJ15</f>
+        <f t="shared" ref="CE22" si="67">DJ15</f>
         <v>1.1187107950909092</v>
       </c>
       <c r="CF22" s="2">
-        <f t="shared" ref="CF22" si="47">DK15</f>
+        <f t="shared" ref="CF22" si="68">DK15</f>
         <v>1.0306461730909091</v>
       </c>
       <c r="CG22" s="2">
-        <f t="shared" ref="CG22" si="48">DL15</f>
+        <f t="shared" ref="CG22" si="69">DL15</f>
         <v>1.0331183473636365</v>
       </c>
       <c r="CH22" s="2">
-        <f t="shared" ref="CH22" si="49">DM15</f>
+        <f t="shared" ref="CH22" si="70">DM15</f>
         <v>1.0350444679090909</v>
       </c>
       <c r="CI22" s="2">
-        <f t="shared" ref="CI22" si="50">DN15</f>
+        <f t="shared" ref="CI22" si="71">DN15</f>
         <v>1.1633085400000001</v>
       </c>
       <c r="CJ22" s="2">
-        <f t="shared" ref="CJ22" si="51">DO15</f>
+        <f t="shared" ref="CJ22" si="72">DO15</f>
         <v>0.96713041990909088</v>
+      </c>
+      <c r="CL22" s="3">
+        <v>448</v>
+      </c>
+      <c r="CM22" s="5">
+        <f t="shared" si="32"/>
+        <v>1.0857479099440723</v>
+      </c>
+      <c r="CN22" s="5">
+        <f t="shared" si="33"/>
+        <v>0.99444503877304213</v>
+      </c>
+      <c r="CO22" s="5">
+        <f t="shared" si="34"/>
+        <v>1.0982733242405593</v>
+      </c>
+      <c r="CP22" s="5">
+        <f t="shared" si="35"/>
+        <v>1.2240189163487019</v>
+      </c>
+      <c r="CQ22" s="5">
+        <f t="shared" si="36"/>
+        <v>1.1298610216838672</v>
+      </c>
+      <c r="CR22" s="5">
+        <f t="shared" si="37"/>
+        <v>1.2331354218999604</v>
+      </c>
+      <c r="CS22" s="5">
+        <f t="shared" si="38"/>
+        <v>1.6060691431505054</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A16:H16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="AX16:BE16"/>
+    <mergeCell ref="CL16:CS16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
